--- a/utils/data/intervalliConfidenza/Test1/CI_Test1_2000ms.xlsx
+++ b/utils/data/intervalliConfidenza/Test1/CI_Test1_2000ms.xlsx
@@ -427,34 +427,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>31.48148148148148</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="F2">
-        <v>9.894151000000001</v>
+        <v>0.331552</v>
       </c>
       <c r="G2">
-        <v>34.115375</v>
+        <v>0.004024</v>
       </c>
       <c r="H2">
-        <v>5.850738544106117</v>
+        <v>0.0007004884875657281</v>
       </c>
       <c r="I2">
-        <v>11.46744754644799</v>
+        <v>0.001372957435628827</v>
       </c>
       <c r="J2">
-        <v>21.36159854644799</v>
+        <v>0.3329249574356288</v>
       </c>
       <c r="K2">
-        <v>-1.573296546447988</v>
+        <v>0.3301790425643712</v>
       </c>
     </row>
   </sheetData>
